--- a/techniqo/data_new_ticker/POLYCAB.xlsx
+++ b/techniqo/data_new_ticker/POLYCAB.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G350"/>
+  <dimension ref="A1:G352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12636,6 +12636,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>895.4</v>
+      </c>
+      <c r="C351" t="n">
+        <v>909.8</v>
+      </c>
+      <c r="D351" t="n">
+        <v>889</v>
+      </c>
+      <c r="E351" t="n">
+        <v>897.05</v>
+      </c>
+      <c r="F351" t="n">
+        <v>197339</v>
+      </c>
+      <c r="G351" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>897.55</v>
+      </c>
+      <c r="C352" t="n">
+        <v>910</v>
+      </c>
+      <c r="D352" t="n">
+        <v>877.1</v>
+      </c>
+      <c r="E352" t="n">
+        <v>889.4</v>
+      </c>
+      <c r="F352" t="n">
+        <v>111271</v>
+      </c>
+      <c r="G352" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/POLYCAB.xlsx
+++ b/techniqo/data_new_ticker/POLYCAB.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G352"/>
+  <dimension ref="A1:G354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12686,6 +12686,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>880</v>
+      </c>
+      <c r="C353" t="n">
+        <v>891.3</v>
+      </c>
+      <c r="D353" t="n">
+        <v>872.55</v>
+      </c>
+      <c r="E353" t="n">
+        <v>882.6</v>
+      </c>
+      <c r="F353" t="n">
+        <v>69927</v>
+      </c>
+      <c r="G353" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>883.9</v>
+      </c>
+      <c r="C354" t="n">
+        <v>890</v>
+      </c>
+      <c r="D354" t="n">
+        <v>867.4</v>
+      </c>
+      <c r="E354" t="n">
+        <v>879.7</v>
+      </c>
+      <c r="F354" t="n">
+        <v>138719</v>
+      </c>
+      <c r="G354" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
